--- a/irecodes-master/demand_damaged_t12.xlsx
+++ b/irecodes-master/demand_damaged_t12.xlsx
@@ -708,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.38844657432631E-05</v>
+        <v>0.001851388888889807</v>
       </c>
       <c r="E2">
-        <v>-0.00231481481481567</v>
+        <v>-0.002314814814816634</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.903514617435574E-05</v>
+        <v>0.002538194444445703</v>
       </c>
       <c r="H2">
-        <v>-0.00231481481481567</v>
+        <v>-0.002314814814816634</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>2.082669540442514E-05</v>
+        <v>0.00277708333333471</v>
       </c>
       <c r="T2">
-        <v>-0.00231481481481567</v>
+        <v>-0.002314814814816634</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>6.345040128886922E-06</v>
+        <v>0.0008460648148152343</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -852,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>-0.03064604844357772</v>
+        <v>-0.01417923457929641</v>
       </c>
       <c r="BA2">
-        <v>-0.03064604853206884</v>
+        <v>-0.01417923461333883</v>
       </c>
       <c r="BB2">
-        <v>-0.03064604847422083</v>
+        <v>-0.01417923459191605</v>
       </c>
     </row>
   </sheetData>
